--- a/Data/zcb elastic 0.5 hedge.xlsx
+++ b/Data/zcb elastic 0.5 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26215.74839799658</v>
+        <v>-31951.57216469556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-23925.00305511507</v>
+        <v>-29701.37671290594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-22728.20309056406</v>
+        <v>-28571.31425513618</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21540.08616189708</v>
+        <v>-27366.24657035317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20461.4056676718</v>
+        <v>-26275.70006510954</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-19937.18859092187</v>
+        <v>-25780.12298604823</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-18977.03529884452</v>
+        <v>-24773.15237406854</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18204.52389594142</v>
+        <v>-23962.61033290203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17513.92612066678</v>
+        <v>-23252.49626047634</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-16747.4647901256</v>
+        <v>-22517.61108114348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16173.18083040189</v>
+        <v>-21865.04009439351</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15651.29719979856</v>
+        <v>-21317.4628455938</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14726.52110444579</v>
+        <v>-20322.30181930079</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14382.18868850673</v>
+        <v>-19901.4487102225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13694.04876838685</v>
+        <v>-19130.50471692868</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13027.72865771084</v>
+        <v>-18424.7811840244</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12328.4745961064</v>
+        <v>-17744.7886286945</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-11928.58241281368</v>
+        <v>-17316.54975246446</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11345.27499693402</v>
+        <v>-16727.15968371006</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10907.40118731341</v>
+        <v>-16247.09414906503</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10369.64450079676</v>
+        <v>-15731.12965806867</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-9985.794648431636</v>
+        <v>-15395.84393390547</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9248.542105486842</v>
+        <v>-14596.2354371445</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9232.121944157314</v>
+        <v>-215664.3878245669</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8638.335201929485</v>
+        <v>-12981.39419473012</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8136.173556577881</v>
+        <v>-12507.65962979109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7800.894608301708</v>
+        <v>-12148.3355989295</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7202.669192366687</v>
+        <v>-11691.79489773968</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6748.543704190613</v>
+        <v>-11215.45358113593</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6356.016738840102</v>
+        <v>-10849.08817897153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6119.198869798533</v>
+        <v>-10553.84520361468</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5756.51242344892</v>
+        <v>-10223.85541085149</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5453.842888632649</v>
+        <v>-9950.498735590796</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5166.516541013674</v>
+        <v>-9626.233746226588</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4728.453334229953</v>
+        <v>-9183.544892427133</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>35020.33861701961</v>
+        <v>-189032.4185465407</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4286.249849502175</v>
+        <v>-7939.368214468996</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4109.980272217302</v>
+        <v>-7716.769743564552</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3702.617144661417</v>
+        <v>-7316.444503422243</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3460.448989760757</v>
+        <v>-7117.532154977843</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3052.239987154059</v>
+        <v>-6743.769395890043</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2729.015221143293</v>
+        <v>-6395.938767630188</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2507.425050163308</v>
+        <v>-6086.491429257527</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2099.397552376917</v>
+        <v>-5669.052237483045</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-1927.760994830998</v>
+        <v>-5529.593686605719</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1725.562563942608</v>
+        <v>-5264.522598111354</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1298.308038843508</v>
+        <v>-4947.323861788336</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1139.884389610216</v>
+        <v>-4715.598727428617</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-934.1843318450932</v>
+        <v>-4551.484386007965</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-756.2140074851125</v>
+        <v>-4354.073518699388</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-544.8682886597016</v>
+        <v>-4126.917048656798</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-527.8764300870751</v>
+        <v>-4030.772968791051</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-306.2471907334008</v>
+        <v>-3819.494371156932</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-168.702069831689</v>
+        <v>-3681.660741837985</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-134.5368321991621</v>
+        <v>-3647.9587535162</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-28.28984919836216</v>
+        <v>-3529.313129722368</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>52.52993173251121</v>
+        <v>-3438.23635549567</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>163.0201418931443</v>
+        <v>-3373.911659061732</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>223.8012454109724</v>
+        <v>-3281.336130850551</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292474.3080883705</v>
+        <v>-492819.4516075148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-862.050440240681</v>
+        <v>-2006.830059936867</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-822.9469999216481</v>
+        <v>-1955.154119290118</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-737.2906252284765</v>
+        <v>-1905.196699326362</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-595.3346989765517</v>
+        <v>-1821.686708379773</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-524.1722926081377</v>
+        <v>-1753.45088599752</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-397.3366158555804</v>
+        <v>-1648.017071880469</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-329.0080385601988</v>
+        <v>-1588.644781469836</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-236.1980599035682</v>
+        <v>-1503.596945124541</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-111.5267254440077</v>
+        <v>-1427.39224455083</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-85.02707925926663</v>
+        <v>-1307.160868974871</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-10.82830759770913</v>
+        <v>-1311.229625293873</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>38.59959451007522</v>
+        <v>-1222.771135430426</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>108.6688500848094</v>
+        <v>-1169.145714256708</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>141.5097662127751</v>
+        <v>-1119.027749246549</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>195.332858632312</v>
+        <v>-1057.032432896275</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>232.5357082273672</v>
+        <v>-1000.521492699486</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>326.7121910360935</v>
+        <v>-931.3906454715217</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>424.7927112206746</v>
+        <v>-871.7609927871993</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>433.0485923835435</v>
+        <v>-884.4419464101848</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>514.5920593293763</v>
+        <v>-846.0576464559146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>592.4299344085072</v>
+        <v>-815.6987714771489</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>596.1427941271178</v>
+        <v>-753.6217618920622</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>630.5152696498901</v>
+        <v>-743.758986498891</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114963.9262808526</v>
+        <v>-121328.3001026648</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>196.02189108491</v>
+        <v>-519.6885094721816</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>246.0800846744051</v>
+        <v>-505.4133640058679</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>344.0611401033203</v>
+        <v>-462.2029762307812</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>363.7250739027182</v>
+        <v>-467.2518484237464</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>317.2047072443925</v>
+        <v>-422.2998979297741</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>338.9563872948069</v>
+        <v>-394.5123700449192</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>371.5167756580305</v>
+        <v>-371.1562296962953</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>447.0641665854542</v>
+        <v>-351.5308719501935</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>408.9519469049546</v>
+        <v>-365.6175079367187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>401.7690105759999</v>
+        <v>-305.5903074821929</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>449.5051562330056</v>
+        <v>-298.785475780576</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54250.85223635879</v>
+        <v>-91356.05838703924</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>258.5577863403657</v>
+        <v>-243.1417864892571</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>316.2838854779473</v>
+        <v>-232.6063570560035</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>329.9809217120534</v>
+        <v>-199.0214302352585</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>369.3675380451702</v>
+        <v>-148.8081425349374</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>348.0910765214504</v>
+        <v>-145.2071819363585</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>365.000297201805</v>
+        <v>-127.8436917794743</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>347.6554026664499</v>
+        <v>-132.5090466217389</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>387.3263301482696</v>
+        <v>-110.3497848253672</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>467.0881044858757</v>
+        <v>-90.90111350548158</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>449.5500532588983</v>
+        <v>-51.69621859303683</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>456.0778002605542</v>
+        <v>-29.72688161811951</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>492.715234478205</v>
+        <v>-24.67283220917585</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>494.5129634980958</v>
+        <v>-16.50365241732528</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>475.2370168533313</v>
+        <v>-11.98774408205394</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>504.9593298685832</v>
+        <v>12.59210259882504</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>494.2525312244193</v>
+        <v>0.7232243596565165</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>519.7621711296654</v>
+        <v>-4.979245762971741</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>477.396944330696</v>
+        <v>-10.22328315973382</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>547.9396969895529</v>
+        <v>-7.265913651099928</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>470.9796645640718</v>
+        <v>34.70911593402842</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>494.9557570648702</v>
+        <v>36.77142853577754</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>485.9872022019236</v>
+        <v>23.83696545460335</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>537.875874382161</v>
+        <v>0.9630506397020827</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127815.3562791536</v>
+        <v>-83487.43761266787</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.5 hedge.xlsx
+++ b/Data/zcb elastic 0.5 hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31951.57216469556</v>
+        <v>-7615.78912623653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29701.37671290594</v>
+        <v>-7586.389640823786</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28571.31425513618</v>
+        <v>-7560.72302821278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27366.24657035317</v>
+        <v>-7525.291482918396</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26275.70006510954</v>
+        <v>-7477.641593290847</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25780.12298604823</v>
+        <v>-7441.594341760975</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24773.15237406854</v>
+        <v>-7404.623622981432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23962.61033290203</v>
+        <v>-7350.822613214841</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23252.49626047634</v>
+        <v>-7321.481363747402</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22517.61108114348</v>
+        <v>-7290.935268550955</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21865.04009439351</v>
+        <v>-7260.09177969215</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21317.4628455938</v>
+        <v>-7222.430799132531</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20322.30181930079</v>
+        <v>-7186.366141394847</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19901.4487102225</v>
+        <v>-7154.90738549138</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19130.50471692868</v>
+        <v>-7129.269846974899</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18424.7811840244</v>
+        <v>-7088.832143073681</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17744.7886286945</v>
+        <v>-7052.738070648846</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17316.54975246446</v>
+        <v>-7032.568446549068</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16727.15968371006</v>
+        <v>-6986.986243039723</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16247.09414906503</v>
+        <v>-6953.341981846364</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15731.12965806867</v>
+        <v>-6921.19521803909</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15395.84393390547</v>
+        <v>-6900.357993614941</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14596.2354371445</v>
+        <v>-6857.882479042403</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215664.3878245669</v>
+        <v>-224420.8499994528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-12981.39419473012</v>
+        <v>-5829.205861448316</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12507.65962979109</v>
+        <v>-5806.808602998219</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12148.3355989295</v>
+        <v>-5779.652017945466</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11691.79489773968</v>
+        <v>-5750.877471306167</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11215.45358113593</v>
+        <v>-5731.171449305885</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10849.08817897153</v>
+        <v>-5709.128717772671</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10553.84520361468</v>
+        <v>-5687.810371024826</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10223.85541085149</v>
+        <v>-5668.78250027273</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9950.498735590796</v>
+        <v>-5645.567129667565</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9626.233746226588</v>
+        <v>-5610.807940339399</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9183.544892427133</v>
+        <v>-5595.819325778375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-189032.4185465407</v>
+        <v>-223354.6376506513</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-7939.368214468996</v>
+        <v>-4727.375570196322</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7716.769743564552</v>
+        <v>-4698.264997969354</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7316.444503422243</v>
+        <v>-4672.703198314649</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7117.532154977843</v>
+        <v>-4651.14117066121</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6743.769395890043</v>
+        <v>-4628.645037213733</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6395.938767630188</v>
+        <v>-4608.343883671416</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6086.491429257527</v>
+        <v>-4594.831836359323</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5669.052237483045</v>
+        <v>-4565.466743122927</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5529.593686605719</v>
+        <v>-4565.754320187414</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5264.522598111354</v>
+        <v>-4529.548817451236</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4947.323861788336</v>
+        <v>-4513.894540922809</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4715.598727428617</v>
+        <v>-4493.822512387922</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4551.484386007965</v>
+        <v>-4478.597476155225</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4354.073518699388</v>
+        <v>-4435.984726499294</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4126.917048656798</v>
+        <v>-4421.748088633713</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4030.772968791051</v>
+        <v>-4414.205731058847</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3819.494371156932</v>
+        <v>-4391.688804498736</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3681.660741837985</v>
+        <v>-4383.821155155699</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3647.9587535162</v>
+        <v>-4369.414556483945</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3529.313129722368</v>
+        <v>-4352.330186860817</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3438.23635549567</v>
+        <v>-4332.550434693903</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3373.911659061732</v>
+        <v>-4321.292195801266</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3281.336130850551</v>
+        <v>-4283.583304291948</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492819.4516075148</v>
+        <v>-781167.5902402068</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2006.830059936867</v>
+        <v>-1906.63998382903</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1955.154119290118</v>
+        <v>-1877.541259289986</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1905.196699326362</v>
+        <v>-1864.896242273285</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1821.686708379773</v>
+        <v>-1863.200514421758</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1753.45088599752</v>
+        <v>-1841.135061663039</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1648.017071880469</v>
+        <v>-1816.132488396968</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1588.644781469836</v>
+        <v>-1793.290376191542</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1503.596945124541</v>
+        <v>-1782.881959343337</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1427.39224455083</v>
+        <v>-1751.571723113232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1307.160868974871</v>
+        <v>-1726.939445189581</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1311.229625293873</v>
+        <v>-1715.199471488365</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1222.771135430426</v>
+        <v>-1710.665429070145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1169.145714256708</v>
+        <v>-1692.865381853877</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1119.027749246549</v>
+        <v>-1654.465217774414</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1057.032432896275</v>
+        <v>-1641.668508637433</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1000.521492699486</v>
+        <v>-1631.655452005692</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-931.3906454715217</v>
+        <v>-1620.058851565076</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-871.7609927871993</v>
+        <v>-1600.972873593022</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-884.4419464101848</v>
+        <v>-1568.92381936126</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-846.0576464559146</v>
+        <v>-1558.752940444094</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-815.6987714771489</v>
+        <v>-1537.455206271188</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-753.6217618920622</v>
+        <v>-1525.91931941338</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-743.758986498891</v>
+        <v>-1521.999848576674</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121328.3001026648</v>
+        <v>-235222.1471236369</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-519.6885094721816</v>
+        <v>-929.1061544159252</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-505.4133640058679</v>
+        <v>-915.2703862497967</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-462.2029762307812</v>
+        <v>-895.4916128314144</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-467.2518484237464</v>
+        <v>-875.0050873871191</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-422.2998979297741</v>
+        <v>-844.3076481006983</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-394.5123700449192</v>
+        <v>-853.1755521076269</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-371.1562296962953</v>
+        <v>-825.9025057979479</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-351.5308719501935</v>
+        <v>-801.3146079477909</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-365.6175079367187</v>
+        <v>-783.5962180972142</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-305.5903074821929</v>
+        <v>-753.9945000720228</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-298.785475780576</v>
+        <v>-750.4632789902257</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91356.05838703924</v>
+        <v>-144714.1033600368</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-243.1417864892571</v>
+        <v>-544.627837917095</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-232.6063570560035</v>
+        <v>-528.9304620316379</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-199.0214302352585</v>
+        <v>-504.0574384691111</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-148.8081425349374</v>
+        <v>-489.4837113825889</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-145.2071819363585</v>
+        <v>-467.996739954073</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-127.8436917794743</v>
+        <v>-443.2623201663848</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-132.5090466217389</v>
+        <v>-427.3104955217689</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-110.3497848253672</v>
+        <v>-408.4447920565127</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-90.90111350548158</v>
+        <v>-380.5646649362242</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-51.69621859303683</v>
+        <v>-367.2937730642286</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-29.72688161811951</v>
+        <v>-341.8889569369828</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-24.67283220917585</v>
+        <v>-309.8150390193944</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-16.50365241732528</v>
+        <v>-284.540653614632</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-11.98774408205394</v>
+        <v>-255.1599816280478</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>12.59210259882504</v>
+        <v>-222.7654694540082</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.7232243596565165</v>
+        <v>-184.7610965698498</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-4.979245762971741</v>
+        <v>-141.0889547973008</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-10.22328315973382</v>
+        <v>-119.6929858422622</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-7.265913651099928</v>
+        <v>-73.97717860546349</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>34.70911593402842</v>
+        <v>-26.038062473673</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>36.77142853577754</v>
+        <v>8.675590849892204</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>23.83696545460335</v>
+        <v>49.69571685037381</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.9630506397020827</v>
+        <v>67.78979730482973</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83487.43761266787</v>
+        <v>-67046.50397793809</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.5 hedge.xlsx
+++ b/Data/zcb elastic 0.5 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7615.78912623653</v>
+        <v>-27894.0904601206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7586.389640823786</v>
+        <v>-28526.70081558033</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7560.72302821278</v>
+        <v>-28959.75577680641</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7525.291482918396</v>
+        <v>-29322.27189793437</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7477.641593290847</v>
+        <v>-29471.11882990148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7441.594341760975</v>
+        <v>-29283.81820584988</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7404.623622981432</v>
+        <v>-29102.5214574435</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7350.822613214841</v>
+        <v>-28921.49142577481</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7321.481363747402</v>
+        <v>-28595.60294419185</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7290.935268550955</v>
+        <v>-28146.68705659617</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7260.09177969215</v>
+        <v>-27667.76411958251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7222.430799132531</v>
+        <v>-27253.41677794358</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7186.366141394847</v>
+        <v>-26725.12891222609</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7154.90738549138</v>
+        <v>-26230.86878295473</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7129.269846974899</v>
+        <v>-25253.58892646295</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7088.832143073681</v>
+        <v>-24276.42987052784</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7052.738070648846</v>
+        <v>-23931.26564879178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7032.568446549068</v>
+        <v>-23270.59336106144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6986.986243039723</v>
+        <v>-22686.9011866161</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6953.341981846364</v>
+        <v>-22048.40160583974</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6921.19521803909</v>
+        <v>-21378.52081891334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6900.357993614941</v>
+        <v>-20694.68730621829</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6857.882479042403</v>
+        <v>-20132.60388208013</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224420.8499994528</v>
+        <v>-126518.7564824588</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5829.205861448316</v>
+        <v>-15961.41456181871</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5806.808602998219</v>
+        <v>-15766.37036210456</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5779.652017945466</v>
+        <v>-15458.09412806412</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5750.877471306167</v>
+        <v>-14979.02671853672</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5731.171449305885</v>
+        <v>-14721.60875167148</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5709.128717772671</v>
+        <v>-14266.15436989166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5687.810371024826</v>
+        <v>-13993.36145450419</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5668.78250027273</v>
+        <v>-13513.85404436418</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5645.567129667565</v>
+        <v>-13213.43926354153</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5610.807940339399</v>
+        <v>-12864.74905539447</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5595.819325778375</v>
+        <v>-12476.4157568212</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223354.6376506513</v>
+        <v>-118234.037045782</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4727.375570196322</v>
+        <v>-10037.94836243308</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4698.264997969354</v>
+        <v>-9736.868201809366</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4672.703198314649</v>
+        <v>-9590.121049920344</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4651.14117066121</v>
+        <v>-9404.652536802449</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4628.645037213733</v>
+        <v>-9486.697196223442</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4608.343883671416</v>
+        <v>-9157.46858523646</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4594.831836359323</v>
+        <v>-8820.176455556539</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4565.466743122927</v>
+        <v>-8742.357017273549</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4565.754320187414</v>
+        <v>-8578.823286991377</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4529.548817451236</v>
+        <v>-8462.060715629876</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4513.894540922809</v>
+        <v>-8326.156869054234</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4493.822512387922</v>
+        <v>-8106.749142824087</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4478.597476155225</v>
+        <v>-7888.205926190989</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4435.984726499294</v>
+        <v>-7733.238491799018</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4421.748088633713</v>
+        <v>-7631.235092032855</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4414.205731058847</v>
+        <v>-7459.008696678153</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4391.688804498736</v>
+        <v>-7394.224765485922</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4383.821155155699</v>
+        <v>-7205.069057028609</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4369.414556483945</v>
+        <v>-7013.566790452667</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4352.330186860817</v>
+        <v>-6800.370941163089</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4332.550434693903</v>
+        <v>-6654.080050482992</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4321.292195801266</v>
+        <v>-6544.870596414384</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4283.583304291948</v>
+        <v>-6449.495292219879</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781167.5902402068</v>
+        <v>-375312.5955571493</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1906.63998382903</v>
+        <v>-2430.605749806067</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1877.541259289986</v>
+        <v>-2428.951896551422</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1864.896242273285</v>
+        <v>-2394.004499905619</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1863.200514421758</v>
+        <v>-2333.802640391628</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1841.135061663039</v>
+        <v>-2295.161290764639</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1816.132488396968</v>
+        <v>-2253.965672919908</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1793.290376191542</v>
+        <v>-2234.055447168601</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1782.881959343337</v>
+        <v>-2215.510878694808</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1751.571723113232</v>
+        <v>-2176.423741187816</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1726.939445189581</v>
+        <v>-2152.971988394093</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1715.199471488365</v>
+        <v>-2154.266489884532</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1710.665429070145</v>
+        <v>-2091.914508925609</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1692.865381853877</v>
+        <v>-2033.088301803524</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1654.465217774414</v>
+        <v>-2007.143429674634</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1641.668508637433</v>
+        <v>-2004.788484216916</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1631.655452005692</v>
+        <v>-1970.657091990357</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1620.058851565076</v>
+        <v>-1968.764280922793</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1600.972873593022</v>
+        <v>-1940.673122617584</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1568.92381936126</v>
+        <v>-1915.42615827573</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1558.752940444094</v>
+        <v>-1887.957027866773</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1537.455206271188</v>
+        <v>-1900.55706491767</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1525.91931941338</v>
+        <v>-1835.256437168382</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1521.999848576674</v>
+        <v>-1777.982602116253</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235222.1471236369</v>
+        <v>-120502.346984675</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-929.1061544159252</v>
+        <v>-1030.001628457247</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-915.2703862497967</v>
+        <v>-1022.583594713346</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-895.4916128314144</v>
+        <v>-1024.714555856647</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-875.0050873871191</v>
+        <v>-1003.707439228425</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-844.3076481006983</v>
+        <v>-988.3629230321141</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-853.1755521076269</v>
+        <v>-972.0810141354194</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-825.9025057979479</v>
+        <v>-960.2134601113688</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-801.3146079477909</v>
+        <v>-931.7995923686993</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-783.5962180972142</v>
+        <v>-892.5472114666794</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-753.9945000720228</v>
+        <v>-905.8087639685787</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-750.4632789902257</v>
+        <v>-898.8294042547111</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144714.1033600368</v>
+        <v>-97420.80164033307</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-544.627837917095</v>
+        <v>-615.4775002712101</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-528.9304620316379</v>
+        <v>-604.0154233576675</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-504.0574384691111</v>
+        <v>-611.1028341997052</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-489.4837113825889</v>
+        <v>-600.6230016454828</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-467.996739954073</v>
+        <v>-584.6396827721446</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-443.2623201663848</v>
+        <v>-604.5492788526565</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-427.3104955217689</v>
+        <v>-578.6532399842713</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-408.4447920565127</v>
+        <v>-578.3632224596244</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-380.5646649362242</v>
+        <v>-567.3818148267922</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-367.2937730642286</v>
+        <v>-562.7229365857432</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-341.8889569369828</v>
+        <v>-542.375363904795</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-309.8150390193944</v>
+        <v>-557.4489961577141</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-284.540653614632</v>
+        <v>-554.7071156100719</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-255.1599816280478</v>
+        <v>-536.8798002356875</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-222.7654694540082</v>
+        <v>-516.509862969687</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-184.7610965698498</v>
+        <v>-500.1502744947181</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-141.0889547973008</v>
+        <v>-525.5289605405975</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-119.6929858422622</v>
+        <v>-522.4671527403439</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-73.97717860546349</v>
+        <v>-500.5403586395734</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-26.038062473673</v>
+        <v>-503.270036703555</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>8.675590849892204</v>
+        <v>-525.0867902710473</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>49.69571685037381</v>
+        <v>-495.2837572982746</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>67.78979730482973</v>
+        <v>-493.5648344778753</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67046.50397793809</v>
+        <v>-111063.7618131468</v>
       </c>
     </row>
   </sheetData>
